--- a/Excel Files/Three simple cases/Casus 1 - Feasible/Bus Planning Casus 1.xlsx
+++ b/Excel Files/Three simple cases/Casus 1 - Feasible/Bus Planning Casus 1.xlsx
@@ -1,121 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/872575_fontys_nl/Documents/Documenten/Python/PJ5 Dataset/Casus 1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_0399E22E9067360E62355476585DCE3A87431D38" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0039834-DE80-484B-9B74-AB594D13B954}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$721</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
-    <t>start location</t>
-  </si>
-  <si>
-    <t>end location</t>
-  </si>
-  <si>
-    <t>start time</t>
-  </si>
-  <si>
-    <t>end time</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>energy consumption</t>
-  </si>
-  <si>
-    <t>bus</t>
-  </si>
-  <si>
-    <t>ehvgar</t>
-  </si>
-  <si>
-    <t>ehvbst</t>
-  </si>
-  <si>
-    <t>05:03:00</t>
-  </si>
-  <si>
-    <t>05:07:00</t>
-  </si>
-  <si>
-    <t>material trip</t>
-  </si>
-  <si>
-    <t>ehvapt</t>
-  </si>
-  <si>
-    <t>05:31:00</t>
-  </si>
-  <si>
-    <t>service trip</t>
-  </si>
-  <si>
-    <t>06:04:00</t>
-  </si>
-  <si>
-    <t>idle</t>
-  </si>
-  <si>
-    <t>06:29:00</t>
-  </si>
-  <si>
-    <t>06:31:00</t>
-  </si>
-  <si>
-    <t>06:55:00</t>
-  </si>
-  <si>
-    <t>06:56:00</t>
-  </si>
-  <si>
-    <t>07:21:00</t>
-  </si>
-  <si>
-    <t>07:45:00</t>
-  </si>
-  <si>
-    <t>07:46:00</t>
+    <t xml:space="preserve">start location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energy consumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ehvgar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ehvbst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:03:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:07:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">material trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ehvapt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:31:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:04:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:29:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:31:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:55:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:56:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:21:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:45:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:46:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,90 +144,120 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -218,262 +265,157 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,276 +441,282 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0" t="n">
         <v>1.98</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0" t="n">
         <v>401</v>
       </c>
-      <c r="G3">
-        <v>10.803599999999999</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G3" s="0" t="n">
+        <v>10.8036</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0" t="n">
         <v>401</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0" t="n">
         <v>10.86</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0" t="n">
         <v>401</v>
       </c>
-      <c r="G7">
-        <v>10.803599999999999</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="G7" s="0" t="n">
+        <v>10.8036</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0" t="n">
         <v>401</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0" t="n">
         <v>10.86</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="G11">
-        <v>12.849600000000001</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="G11" s="0" t="n">
+        <v>12.8496</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
